--- a/Code/Results/Cases/Case_1_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.93945461247682</v>
+        <v>13.88147134849534</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.572837259556219</v>
+        <v>7.049991988147958</v>
       </c>
       <c r="E2">
-        <v>7.845789896217616</v>
+        <v>10.13066848703873</v>
       </c>
       <c r="F2">
-        <v>32.81894534565672</v>
+        <v>36.69590696583991</v>
       </c>
       <c r="G2">
-        <v>2.092478587506114</v>
+        <v>3.693126488969042</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.28615218504508</v>
+        <v>29.09761494511422</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.83555453302328</v>
+        <v>14.56652409829984</v>
       </c>
       <c r="L2">
-        <v>8.480937225466704</v>
+        <v>10.60633411463625</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.36415230770454</v>
+        <v>21.50309568174834</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.31594316826849</v>
+        <v>13.78340319197619</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.659470224999852</v>
+        <v>7.069156225718231</v>
       </c>
       <c r="E3">
-        <v>7.628427414116389</v>
+        <v>10.0783698731568</v>
       </c>
       <c r="F3">
-        <v>31.56273942795228</v>
+        <v>36.51602977502817</v>
       </c>
       <c r="G3">
-        <v>2.10198166715956</v>
+        <v>3.696544905624772</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.22161247928</v>
+        <v>29.14565157080244</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.57764040097416</v>
+        <v>14.27513527562455</v>
       </c>
       <c r="L3">
-        <v>8.125981255166954</v>
+        <v>10.56625742972427</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.55496492437727</v>
+        <v>21.55885782390413</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.92204497588749</v>
+        <v>13.72606961727194</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.713070222019581</v>
+        <v>7.081381407599278</v>
       </c>
       <c r="E4">
-        <v>7.494200672098652</v>
+        <v>10.04550668761286</v>
       </c>
       <c r="F4">
-        <v>30.79884168983945</v>
+        <v>36.41509646703552</v>
       </c>
       <c r="G4">
-        <v>2.107962844112722</v>
+        <v>3.698753338923227</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.19545128790722</v>
+        <v>29.17986127384013</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.76490229881682</v>
+        <v>14.09764170461958</v>
       </c>
       <c r="L4">
-        <v>7.90649325209982</v>
+        <v>10.54399577346527</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.67622647939003</v>
+        <v>21.59500616027011</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.75893722867307</v>
+        <v>13.70345229477011</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.735037561035011</v>
+        <v>7.086478975428452</v>
       </c>
       <c r="E5">
-        <v>7.439274313840277</v>
+        <v>10.03192625751189</v>
       </c>
       <c r="F5">
-        <v>30.48971391877038</v>
+        <v>36.37638463650018</v>
       </c>
       <c r="G5">
-        <v>2.110438919684988</v>
+        <v>3.699680931340195</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.18803914504251</v>
+        <v>29.19498558825541</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.42341532397796</v>
+        <v>14.02577858915098</v>
       </c>
       <c r="L5">
-        <v>7.816774480163727</v>
+        <v>10.53552011484274</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.72666375005684</v>
+        <v>21.61021773896412</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.731703098476</v>
+        <v>13.69974242066616</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.73869339495899</v>
+        <v>7.087332424964996</v>
       </c>
       <c r="E6">
-        <v>7.430139150188903</v>
+        <v>10.02965987453842</v>
       </c>
       <c r="F6">
-        <v>30.43852380844829</v>
+        <v>36.37010341477026</v>
       </c>
       <c r="G6">
-        <v>2.110852461127021</v>
+        <v>3.699836629563858</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.18700060040118</v>
+        <v>29.1975683915852</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.36608631374562</v>
+        <v>14.01387720214392</v>
       </c>
       <c r="L6">
-        <v>7.801863678453231</v>
+        <v>10.53414891459684</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.73510033394111</v>
+        <v>21.61277266685266</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.91985546057119</v>
+        <v>13.7257615409248</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.713365946803917</v>
+        <v>7.081449686084505</v>
       </c>
       <c r="E7">
-        <v>7.493460881105126</v>
+        <v>10.04532429923298</v>
       </c>
       <c r="F7">
-        <v>30.7946634883103</v>
+        <v>36.41456455675853</v>
       </c>
       <c r="G7">
-        <v>2.107996078200892</v>
+        <v>3.698765736722168</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.19533835120446</v>
+        <v>29.18006045625562</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.76033872540161</v>
+        <v>14.09667049712827</v>
       </c>
       <c r="L7">
-        <v>7.905284229669698</v>
+        <v>10.54387904618952</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.67690256563511</v>
+        <v>21.59520936140406</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.72686604589516</v>
+        <v>13.84707326939161</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.60263792562514</v>
+        <v>7.056504991617736</v>
       </c>
       <c r="E8">
-        <v>7.770978799492869</v>
+        <v>10.11279227134436</v>
       </c>
       <c r="F8">
-        <v>32.38443531028467</v>
+        <v>36.63192868083959</v>
       </c>
       <c r="G8">
-        <v>2.095726095704122</v>
+        <v>3.694282490389518</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.26102053264378</v>
+        <v>29.11319818338339</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.41012047042437</v>
+        <v>14.46582395686886</v>
       </c>
       <c r="L8">
-        <v>8.358931494269783</v>
+        <v>10.59203286071293</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.42908684650989</v>
+        <v>21.52192632440241</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.21512461974191</v>
+        <v>14.1067885184385</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.387620053399518</v>
+        <v>7.011202491929843</v>
       </c>
       <c r="E9">
-        <v>8.311099273270623</v>
+        <v>10.2391106561565</v>
       </c>
       <c r="F9">
-        <v>35.54982494559547</v>
+        <v>37.13227551147099</v>
       </c>
       <c r="G9">
-        <v>2.072730634326585</v>
+        <v>3.686355208372451</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.50295929420878</v>
+        <v>29.0195803891065</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.33156975451881</v>
+        <v>15.19625617568116</v>
       </c>
       <c r="L9">
-        <v>9.232177802440326</v>
+        <v>10.70476310494054</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.97622060919311</v>
+        <v>21.39335084727692</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.24463117837433</v>
+        <v>14.3094478975894</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.229240477436391</v>
+        <v>6.980090145830084</v>
       </c>
       <c r="E10">
-        <v>8.708848758585868</v>
+        <v>10.32824305470194</v>
       </c>
       <c r="F10">
-        <v>37.89384332754265</v>
+        <v>37.54297195861698</v>
       </c>
       <c r="G10">
-        <v>2.056340999033137</v>
+        <v>3.68105156339189</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.75855100012235</v>
+        <v>28.97377286929963</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.29649422429742</v>
+        <v>15.73071139492243</v>
       </c>
       <c r="L10">
-        <v>9.893412505970311</v>
+        <v>10.79828179364392</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.66470942155273</v>
+        <v>21.30807751235159</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.69832655478824</v>
+        <v>14.40388719386475</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.156678410358801</v>
+        <v>6.966400992001969</v>
       </c>
       <c r="E11">
-        <v>8.890964363474001</v>
+        <v>10.36798895254996</v>
       </c>
       <c r="F11">
-        <v>38.96318663471467</v>
+        <v>37.73865462200325</v>
       </c>
       <c r="G11">
-        <v>2.048958396448006</v>
+        <v>3.678750459984327</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.89372465282418</v>
+        <v>28.95794308080005</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.15336500138271</v>
+        <v>15.97214063717177</v>
       </c>
       <c r="L11">
-        <v>10.27093086452208</v>
+        <v>10.8430366238581</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.52792791270889</v>
+        <v>21.2712733281525</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.86799327537104</v>
+        <v>14.43994374254728</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.129087769833551</v>
+        <v>6.961283479408377</v>
       </c>
       <c r="E12">
-        <v>8.960194551625758</v>
+        <v>10.3829239318424</v>
       </c>
       <c r="F12">
-        <v>39.36856235375828</v>
+        <v>37.81398037144022</v>
       </c>
       <c r="G12">
-        <v>2.046169921907981</v>
+        <v>3.677895028327223</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.94780192906553</v>
+        <v>28.95267026151445</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.47273838270616</v>
+        <v>16.06322332401079</v>
       </c>
       <c r="L12">
-        <v>10.41159207451241</v>
+        <v>10.86029193541111</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.47687768718219</v>
+        <v>21.2576218580381</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.83154788797162</v>
+        <v>14.43216568881116</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.135035596501536</v>
+        <v>6.962382686962801</v>
       </c>
       <c r="E13">
-        <v>8.945270981296849</v>
+        <v>10.3797125850107</v>
       </c>
       <c r="F13">
-        <v>39.28123708467978</v>
+        <v>37.79770393896588</v>
       </c>
       <c r="G13">
-        <v>2.046770209070958</v>
+        <v>3.678078553127479</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.9360240671837</v>
+        <v>28.9537737451327</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.40417903975249</v>
+        <v>16.04362370973094</v>
       </c>
       <c r="L13">
-        <v>10.38139886918518</v>
+        <v>10.8565621872168</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.48783840070768</v>
+        <v>21.26054925370796</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.71232809605267</v>
+        <v>14.40684785381706</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.154411013510563</v>
+        <v>6.965978645532483</v>
       </c>
       <c r="E14">
-        <v>8.896654002571919</v>
+        <v>10.36921999005755</v>
       </c>
       <c r="F14">
-        <v>38.99652806578615</v>
+        <v>37.74482745233804</v>
       </c>
       <c r="G14">
-        <v>2.048728864132282</v>
+        <v>3.678679764060528</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.89811469160328</v>
+        <v>28.95749481405166</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.17974105861322</v>
+        <v>15.97964144335802</v>
       </c>
       <c r="L14">
-        <v>10.28254865980568</v>
+        <v>10.84445012575505</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.52371278445018</v>
+        <v>21.27014449356198</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.6390235071098</v>
+        <v>14.39137742861559</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.166263078646835</v>
+        <v>6.968189891312902</v>
       </c>
       <c r="E15">
-        <v>8.866912651973612</v>
+        <v>10.36277785256206</v>
       </c>
       <c r="F15">
-        <v>38.8221940483387</v>
+        <v>37.71259712704882</v>
       </c>
       <c r="G15">
-        <v>2.049929422792922</v>
+        <v>3.679050096988941</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.87527569397276</v>
+        <v>28.95986808474918</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.04160817170894</v>
+        <v>15.94040321163545</v>
       </c>
       <c r="L15">
-        <v>10.22170361570809</v>
+        <v>10.83707087824555</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.5457852848074</v>
+        <v>21.27605902495693</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.21468326444118</v>
+        <v>14.30331885304101</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.23396898589061</v>
+        <v>6.980994062670447</v>
       </c>
       <c r="E16">
-        <v>8.696978738690046</v>
+        <v>10.32562938575362</v>
       </c>
       <c r="F16">
-        <v>37.82401878464979</v>
+        <v>37.53035774443493</v>
       </c>
       <c r="G16">
-        <v>2.056824662302241</v>
+        <v>3.681204182503597</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.75011196475462</v>
+        <v>28.97490828648125</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.23976927059543</v>
+        <v>15.71489083766873</v>
       </c>
       <c r="L16">
-        <v>9.868414552497828</v>
+        <v>10.79540059567006</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.67375057024295</v>
+        <v>21.31052271436391</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.95058516660489</v>
+        <v>14.24985325168945</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.275346114757821</v>
+        <v>6.988967529304331</v>
       </c>
       <c r="E17">
-        <v>8.59309569311705</v>
+        <v>10.30263433688146</v>
       </c>
       <c r="F17">
-        <v>37.21242618293208</v>
+        <v>37.42079415006615</v>
       </c>
       <c r="G17">
-        <v>2.061071123036651</v>
+        <v>3.682554147635565</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.67828943299208</v>
+        <v>28.9854187611886</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.73854022440121</v>
+        <v>15.57604072730103</v>
       </c>
       <c r="L17">
-        <v>9.678599181330103</v>
+        <v>10.77039661909961</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.75353908864316</v>
+        <v>21.33217381516234</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.7973061544022</v>
+        <v>14.21931465618379</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.299099287553875</v>
+        <v>6.993597357962758</v>
       </c>
       <c r="E18">
-        <v>8.533448955339361</v>
+        <v>10.28933285639111</v>
       </c>
       <c r="F18">
-        <v>36.86093556274515</v>
+        <v>37.35861259059087</v>
       </c>
       <c r="G18">
-        <v>2.063520679583288</v>
+        <v>3.683341117242228</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.63874763057964</v>
+        <v>28.99193544129608</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.44675162181087</v>
+        <v>15.496023568491</v>
       </c>
       <c r="L18">
-        <v>9.584822783615861</v>
+        <v>10.7562239319011</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.79989233750172</v>
+        <v>21.34481400372774</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.74517346133865</v>
+        <v>14.20901233818832</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.307134951317797</v>
+        <v>6.995172457932863</v>
       </c>
       <c r="E19">
-        <v>8.513268755033014</v>
+        <v>10.28481628785019</v>
       </c>
       <c r="F19">
-        <v>36.74197635847959</v>
+        <v>37.33770408648935</v>
       </c>
       <c r="G19">
-        <v>2.064351373916887</v>
+        <v>3.683609378827587</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.62565811536427</v>
+        <v>28.99422278319652</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.34735058895042</v>
+        <v>15.46890769263727</v>
       </c>
       <c r="L19">
-        <v>9.553014394616048</v>
+        <v>10.75146150162035</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.81566491734463</v>
+        <v>21.34912588849597</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.97884166829758</v>
+        <v>14.25552287773849</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.27094646454566</v>
+        <v>6.988114220540341</v>
       </c>
       <c r="E20">
-        <v>8.604142797926762</v>
+        <v>10.30509000155557</v>
       </c>
       <c r="F20">
-        <v>37.27750237646931</v>
+        <v>37.43237114712883</v>
       </c>
       <c r="G20">
-        <v>2.060618367882065</v>
+        <v>3.682409354967857</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.68575080101419</v>
+        <v>28.98425111145425</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.79225714205957</v>
+        <v>15.59083824444584</v>
       </c>
       <c r="L20">
-        <v>9.695927619173874</v>
+        <v>10.77303678550343</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.74499750684538</v>
+        <v>21.32984966186347</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.74740401552625</v>
+        <v>14.41427655701852</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.148723380570571</v>
+        <v>6.964920630290685</v>
       </c>
       <c r="E21">
-        <v>8.91092587985057</v>
+        <v>10.37230507192697</v>
       </c>
       <c r="F21">
-        <v>39.08014170782618</v>
+        <v>37.7603257105586</v>
       </c>
       <c r="G21">
-        <v>2.048153394089291</v>
+        <v>3.678502741811705</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.90916975307171</v>
+        <v>28.95638225241655</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.24580068047547</v>
+        <v>15.99844459796933</v>
       </c>
       <c r="L21">
-        <v>10.31164497555531</v>
+        <v>10.84799946963342</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.51315502176086</v>
+        <v>21.26731839327809</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.23724306256475</v>
+        <v>14.51973381503132</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.068163993018145</v>
+        <v>6.950148359220066</v>
       </c>
       <c r="E22">
-        <v>9.113040420869012</v>
+        <v>10.41555792632233</v>
       </c>
       <c r="F22">
-        <v>40.26088380062255</v>
+        <v>37.9817789097744</v>
       </c>
       <c r="G22">
-        <v>2.040046684420687</v>
+        <v>3.676042447708419</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.07211773555992</v>
+        <v>28.94237474905425</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.16613406747748</v>
+        <v>16.26280814843479</v>
       </c>
       <c r="L22">
-        <v>10.71688617127429</v>
+        <v>10.89877974929559</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.36600442362551</v>
+        <v>21.2281144602449</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.9769521949598</v>
+        <v>14.46330315046023</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.111236201453026</v>
+        <v>6.957997420419396</v>
       </c>
       <c r="E23">
-        <v>9.004983582180918</v>
+        <v>10.39253517738081</v>
       </c>
       <c r="F23">
-        <v>39.63043967526562</v>
+        <v>37.86295066778415</v>
       </c>
       <c r="G23">
-        <v>2.044370951769924</v>
+        <v>3.677347083459043</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.98354121275797</v>
+        <v>28.94946552451681</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.6775710221521</v>
+        <v>16.12192888983814</v>
       </c>
       <c r="L23">
-        <v>10.50179171456675</v>
+        <v>10.87151739471902</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.4441267491936</v>
+        <v>21.24888617415952</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.9660714034573</v>
+        <v>14.25295901622322</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.272935652810959</v>
+        <v>6.98849985879306</v>
       </c>
       <c r="E24">
-        <v>8.599148169125904</v>
+        <v>10.30398004885823</v>
       </c>
       <c r="F24">
-        <v>37.24808104814799</v>
+        <v>37.42713466619853</v>
       </c>
       <c r="G24">
-        <v>2.060823032667191</v>
+        <v>3.682474781908084</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.6823720787813</v>
+        <v>28.9847775293035</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.76798303157954</v>
+        <v>15.58414887246893</v>
       </c>
       <c r="L24">
-        <v>9.688094619251487</v>
+        <v>10.77184253492796</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.74885765811172</v>
+        <v>21.33089981133201</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.82338427743064</v>
+        <v>14.0343391140775</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.445726994418502</v>
+        <v>7.023074408779221</v>
       </c>
       <c r="E25">
-        <v>8.165105307610187</v>
+        <v>10.20558151874993</v>
       </c>
       <c r="F25">
-        <v>34.68970610261758</v>
+        <v>36.98918725560802</v>
       </c>
       <c r="G25">
-        <v>2.078851512425397</v>
+        <v>3.688407877182786</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.42449516139209</v>
+        <v>29.04087955769291</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.57386118709218</v>
+        <v>14.99860700921628</v>
       </c>
       <c r="L25">
-        <v>8.998196326616673</v>
+        <v>10.67235227550335</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.09509972984636</v>
+        <v>21.42651750364235</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.88147134849534</v>
+        <v>11.93945461247679</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.049991988147958</v>
+        <v>4.57283725955635</v>
       </c>
       <c r="E2">
-        <v>10.13066848703873</v>
+        <v>7.845789896217687</v>
       </c>
       <c r="F2">
-        <v>36.69590696583991</v>
+        <v>32.81894534565669</v>
       </c>
       <c r="G2">
-        <v>3.693126488969042</v>
+        <v>2.092478587505981</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.09761494511422</v>
+        <v>20.28615218504503</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.56652409829984</v>
+        <v>17.83555453302334</v>
       </c>
       <c r="L2">
-        <v>10.60633411463625</v>
+        <v>8.480937225466695</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.50309568174834</v>
+        <v>14.36415230770453</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.78340319197619</v>
+        <v>11.31594316826851</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.069156225718231</v>
+        <v>4.659470224999986</v>
       </c>
       <c r="E3">
-        <v>10.0783698731568</v>
+        <v>7.628427414116579</v>
       </c>
       <c r="F3">
-        <v>36.51602977502817</v>
+        <v>31.56273942795224</v>
       </c>
       <c r="G3">
-        <v>3.696544905624772</v>
+        <v>2.101981667159562</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.14565157080244</v>
+        <v>20.22161247928007</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.27513527562455</v>
+        <v>16.57764040097418</v>
       </c>
       <c r="L3">
-        <v>10.56625742972427</v>
+        <v>8.12598125516698</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.55885782390413</v>
+        <v>14.55496492437725</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.72606961727194</v>
+        <v>10.92204497588752</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.081381407599278</v>
+        <v>4.713070222019453</v>
       </c>
       <c r="E4">
-        <v>10.04550668761286</v>
+        <v>7.494200672098652</v>
       </c>
       <c r="F4">
-        <v>36.41509646703552</v>
+        <v>30.79884168983945</v>
       </c>
       <c r="G4">
-        <v>3.698753338923227</v>
+        <v>2.107962844112588</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.17986127384013</v>
+        <v>20.19545128790726</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.09764170461958</v>
+        <v>15.76490229881682</v>
       </c>
       <c r="L4">
-        <v>10.54399577346527</v>
+        <v>7.906493252099768</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.59500616027011</v>
+        <v>14.67622647939</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.70345229477011</v>
+        <v>10.75893722867309</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.086478975428452</v>
+        <v>4.735037561035016</v>
       </c>
       <c r="E5">
-        <v>10.03192625751189</v>
+        <v>7.43927431384034</v>
       </c>
       <c r="F5">
-        <v>36.37638463650018</v>
+        <v>30.48971391877039</v>
       </c>
       <c r="G5">
-        <v>3.699680931340195</v>
+        <v>2.110438919685118</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.19498558825541</v>
+        <v>20.18803914504253</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.02577858915098</v>
+        <v>15.42341532397797</v>
       </c>
       <c r="L5">
-        <v>10.53552011484274</v>
+        <v>7.816774480163774</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.61021773896412</v>
+        <v>14.72666375005688</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.69974242066616</v>
+        <v>10.73170309847601</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.087332424964996</v>
+        <v>4.738693394959055</v>
       </c>
       <c r="E6">
-        <v>10.02965987453842</v>
+        <v>7.430139150189039</v>
       </c>
       <c r="F6">
-        <v>36.37010341477026</v>
+        <v>30.43852380844821</v>
       </c>
       <c r="G6">
-        <v>3.699836629563858</v>
+        <v>2.110852461127021</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.1975683915852</v>
+        <v>20.18700060040116</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.01387720214392</v>
+        <v>15.36608631374563</v>
       </c>
       <c r="L6">
-        <v>10.53414891459684</v>
+        <v>7.801863678453244</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.61277266685266</v>
+        <v>14.73510033394104</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.7257615409248</v>
+        <v>10.91985546057118</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.081449686084505</v>
+        <v>4.713365946804118</v>
       </c>
       <c r="E7">
-        <v>10.04532429923298</v>
+        <v>7.493460881105192</v>
       </c>
       <c r="F7">
-        <v>36.41456455675853</v>
+        <v>30.79466348831015</v>
       </c>
       <c r="G7">
-        <v>3.698765736722168</v>
+        <v>2.107996078200895</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.18006045625562</v>
+        <v>20.19533835120434</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.09667049712827</v>
+        <v>15.76033872540165</v>
       </c>
       <c r="L7">
-        <v>10.54387904618952</v>
+        <v>7.905284229669703</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.59520936140406</v>
+        <v>14.67690256563508</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.84707326939161</v>
+        <v>11.72686604589519</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.056504991617736</v>
+        <v>4.602637925625077</v>
       </c>
       <c r="E8">
-        <v>10.11279227134436</v>
+        <v>7.770978799493065</v>
       </c>
       <c r="F8">
-        <v>36.63192868083959</v>
+        <v>32.38443531028462</v>
       </c>
       <c r="G8">
-        <v>3.694282490389518</v>
+        <v>2.095726095704122</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.11319818338339</v>
+        <v>20.26102053264381</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.46582395686886</v>
+        <v>17.41012047042445</v>
       </c>
       <c r="L8">
-        <v>10.59203286071293</v>
+        <v>8.35893149426974</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.52192632440241</v>
+        <v>14.4290868465098</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.1067885184385</v>
+        <v>13.21512461974192</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.011202491929843</v>
+        <v>4.387620053399719</v>
       </c>
       <c r="E9">
-        <v>10.2391106561565</v>
+        <v>8.31109927327069</v>
       </c>
       <c r="F9">
-        <v>37.13227551147099</v>
+        <v>35.54982494559538</v>
       </c>
       <c r="G9">
-        <v>3.686355208372451</v>
+        <v>2.072730634326717</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.0195803891065</v>
+        <v>20.50295929420872</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.19625617568116</v>
+        <v>20.33156975451885</v>
       </c>
       <c r="L9">
-        <v>10.70476310494054</v>
+        <v>9.23217780244034</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.39335084727692</v>
+        <v>13.97622060919308</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.3094478975894</v>
+        <v>14.24463117837434</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.980090145830084</v>
+        <v>4.229240477436202</v>
       </c>
       <c r="E10">
-        <v>10.32824305470194</v>
+        <v>8.708848758585992</v>
       </c>
       <c r="F10">
-        <v>37.54297195861698</v>
+        <v>37.89384332754265</v>
       </c>
       <c r="G10">
-        <v>3.68105156339189</v>
+        <v>2.05634099903327</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.97377286929963</v>
+        <v>20.75855100012227</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.73071139492243</v>
+        <v>22.29649422429753</v>
       </c>
       <c r="L10">
-        <v>10.79828179364392</v>
+        <v>9.893412505970353</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.30807751235159</v>
+        <v>13.66470942155265</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.40388719386475</v>
+        <v>14.69832655478824</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.966400992001969</v>
+        <v>4.156678410358674</v>
       </c>
       <c r="E11">
-        <v>10.36798895254996</v>
+        <v>8.890964363473874</v>
       </c>
       <c r="F11">
-        <v>37.73865462200325</v>
+        <v>38.96318663471467</v>
       </c>
       <c r="G11">
-        <v>3.678750459984327</v>
+        <v>2.048958396448</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.95794308080005</v>
+        <v>20.89372465282418</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.97214063717177</v>
+        <v>23.15336500138275</v>
       </c>
       <c r="L11">
-        <v>10.8430366238581</v>
+        <v>10.2709308645221</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.2712733281525</v>
+        <v>13.527927912709</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.43994374254728</v>
+        <v>14.86799327537104</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.961283479408377</v>
+        <v>4.129087769833493</v>
       </c>
       <c r="E12">
-        <v>10.3829239318424</v>
+        <v>8.960194551625882</v>
       </c>
       <c r="F12">
-        <v>37.81398037144022</v>
+        <v>39.36856235375829</v>
       </c>
       <c r="G12">
-        <v>3.677895028327223</v>
+        <v>2.046169921907845</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.95267026151445</v>
+        <v>20.94780192906557</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.06322332401079</v>
+        <v>23.47273838270614</v>
       </c>
       <c r="L12">
-        <v>10.86029193541111</v>
+        <v>10.41159207451238</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.2576218580381</v>
+        <v>13.47687768718214</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.43216568881116</v>
+        <v>14.83154788797162</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.962382686962801</v>
+        <v>4.135035596501538</v>
       </c>
       <c r="E13">
-        <v>10.3797125850107</v>
+        <v>8.94527098129678</v>
       </c>
       <c r="F13">
-        <v>37.79770393896588</v>
+        <v>39.28123708467978</v>
       </c>
       <c r="G13">
-        <v>3.678078553127479</v>
+        <v>2.046770209070823</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.9537737451327</v>
+        <v>20.93602406718361</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.04362370973094</v>
+        <v>23.40417903975244</v>
       </c>
       <c r="L13">
-        <v>10.8565621872168</v>
+        <v>10.38139886918511</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.26054925370796</v>
+        <v>13.48783840070763</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.40684785381706</v>
+        <v>14.71232809605268</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.965978645532483</v>
+        <v>4.154411013510563</v>
       </c>
       <c r="E14">
-        <v>10.36921999005755</v>
+        <v>8.896654002572033</v>
       </c>
       <c r="F14">
-        <v>37.74482745233804</v>
+        <v>38.99652806578611</v>
       </c>
       <c r="G14">
-        <v>3.678679764060528</v>
+        <v>2.048728864132285</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.95749481405166</v>
+        <v>20.89811469160312</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.97964144335802</v>
+        <v>23.17974105861332</v>
       </c>
       <c r="L14">
-        <v>10.84445012575505</v>
+        <v>10.28254865980573</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.27014449356198</v>
+        <v>13.52371278445007</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.39137742861559</v>
+        <v>14.6390235071098</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.968189891312902</v>
+        <v>4.166263078646961</v>
       </c>
       <c r="E15">
-        <v>10.36277785256206</v>
+        <v>8.866912651973793</v>
       </c>
       <c r="F15">
-        <v>37.71259712704882</v>
+        <v>38.82219404833872</v>
       </c>
       <c r="G15">
-        <v>3.679050096988941</v>
+        <v>2.049929422793053</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.95986808474918</v>
+        <v>20.87527569397283</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.94040321163545</v>
+        <v>23.04160817170893</v>
       </c>
       <c r="L15">
-        <v>10.83707087824555</v>
+        <v>10.22170361570806</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.27605902495693</v>
+        <v>13.54578528480744</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.30331885304101</v>
+        <v>14.21468326444116</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.980994062670447</v>
+        <v>4.233968985890682</v>
       </c>
       <c r="E16">
-        <v>10.32562938575362</v>
+        <v>8.696978738690182</v>
       </c>
       <c r="F16">
-        <v>37.53035774443493</v>
+        <v>37.82401878464975</v>
       </c>
       <c r="G16">
-        <v>3.681204182503597</v>
+        <v>2.056824662302108</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.97490828648125</v>
+        <v>20.75011196475444</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.71489083766873</v>
+        <v>22.23976927059554</v>
       </c>
       <c r="L16">
-        <v>10.79540059567006</v>
+        <v>9.86841455249783</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.31052271436391</v>
+        <v>13.67375057024283</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.24985325168945</v>
+        <v>13.95058516660489</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.988967529304331</v>
+        <v>4.275346114757948</v>
       </c>
       <c r="E17">
-        <v>10.30263433688146</v>
+        <v>8.593095693116915</v>
       </c>
       <c r="F17">
-        <v>37.42079415006615</v>
+        <v>37.21242618293216</v>
       </c>
       <c r="G17">
-        <v>3.682554147635565</v>
+        <v>2.061071123036386</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.9854187611886</v>
+        <v>20.67828943299215</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.57604072730103</v>
+        <v>21.73854022440113</v>
       </c>
       <c r="L17">
-        <v>10.77039661909961</v>
+        <v>9.678599181330103</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.33217381516234</v>
+        <v>13.75353908864325</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.21931465618379</v>
+        <v>13.79730615440221</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.993597357962758</v>
+        <v>4.299099287554007</v>
       </c>
       <c r="E18">
-        <v>10.28933285639111</v>
+        <v>8.533448955339232</v>
       </c>
       <c r="F18">
-        <v>37.35861259059087</v>
+        <v>36.86093556274518</v>
       </c>
       <c r="G18">
-        <v>3.683341117242228</v>
+        <v>2.063520679583423</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.99193544129608</v>
+        <v>20.63874763057966</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.496023568491</v>
+        <v>21.44675162181082</v>
       </c>
       <c r="L18">
-        <v>10.7562239319011</v>
+        <v>9.584822783615843</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.34481400372774</v>
+        <v>13.7998923375017</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20901233818832</v>
+        <v>13.74517346133865</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.995172457932863</v>
+        <v>4.307134951317801</v>
       </c>
       <c r="E19">
-        <v>10.28481628785019</v>
+        <v>8.513268755032881</v>
       </c>
       <c r="F19">
-        <v>37.33770408648935</v>
+        <v>36.7419763584796</v>
       </c>
       <c r="G19">
-        <v>3.683609378827587</v>
+        <v>2.064351373916887</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.99422278319652</v>
+        <v>20.62565811536432</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.46890769263727</v>
+        <v>21.34735058895036</v>
       </c>
       <c r="L19">
-        <v>10.75146150162035</v>
+        <v>9.553014394616035</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.34912588849597</v>
+        <v>13.81566491734469</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.25552287773849</v>
+        <v>13.97884166829758</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.988114220540341</v>
+        <v>4.270946464545787</v>
       </c>
       <c r="E20">
-        <v>10.30509000155557</v>
+        <v>8.604142797926762</v>
       </c>
       <c r="F20">
-        <v>37.43237114712883</v>
+        <v>37.2775023764693</v>
       </c>
       <c r="G20">
-        <v>3.682409354967857</v>
+        <v>2.060618367881799</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.98425111145425</v>
+        <v>20.68575080101417</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.59083824444584</v>
+        <v>21.79225714205961</v>
       </c>
       <c r="L20">
-        <v>10.77303678550343</v>
+        <v>9.695927619173863</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.32984966186347</v>
+        <v>13.74499750684536</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.41427655701852</v>
+        <v>14.74740401552626</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.964920630290685</v>
+        <v>4.148723380570696</v>
       </c>
       <c r="E21">
-        <v>10.37230507192697</v>
+        <v>8.91092587985057</v>
       </c>
       <c r="F21">
-        <v>37.7603257105586</v>
+        <v>39.08014170782617</v>
       </c>
       <c r="G21">
-        <v>3.678502741811705</v>
+        <v>2.048153394089423</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.95638225241655</v>
+        <v>20.90916975307162</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.99844459796933</v>
+        <v>23.24580068047552</v>
       </c>
       <c r="L21">
-        <v>10.84799946963342</v>
+        <v>10.3116449755553</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.26731839327809</v>
+        <v>13.51315502176081</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.51973381503132</v>
+        <v>15.23724306256477</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.950148359220066</v>
+        <v>4.068163993018274</v>
       </c>
       <c r="E22">
-        <v>10.41555792632233</v>
+        <v>9.113040420868886</v>
       </c>
       <c r="F22">
-        <v>37.9817789097744</v>
+        <v>40.26088380062256</v>
       </c>
       <c r="G22">
-        <v>3.676042447708419</v>
+        <v>2.040046684420421</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.94237474905425</v>
+        <v>21.0721177355599</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.26280814843479</v>
+        <v>24.16613406747744</v>
       </c>
       <c r="L22">
-        <v>10.89877974929559</v>
+        <v>10.71688617127427</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.2281144602449</v>
+        <v>13.36600442362549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.46330315046023</v>
+        <v>14.97695219495979</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.957997420419396</v>
+        <v>4.111236201453156</v>
       </c>
       <c r="E23">
-        <v>10.39253517738081</v>
+        <v>9.004983582180978</v>
       </c>
       <c r="F23">
-        <v>37.86295066778415</v>
+        <v>39.63043967526566</v>
       </c>
       <c r="G23">
-        <v>3.677347083459043</v>
+        <v>2.044370951769926</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.94946552451681</v>
+        <v>20.98354121275801</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.12192888983814</v>
+        <v>23.67757102215209</v>
       </c>
       <c r="L23">
-        <v>10.87151739471902</v>
+        <v>10.50179171456673</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.24888617415952</v>
+        <v>13.44412674919363</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.25295901622322</v>
+        <v>13.96607140345732</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.98849985879306</v>
+        <v>4.272935652810954</v>
       </c>
       <c r="E24">
-        <v>10.30398004885823</v>
+        <v>8.599148169125893</v>
       </c>
       <c r="F24">
-        <v>37.42713466619853</v>
+        <v>37.24808104814799</v>
       </c>
       <c r="G24">
-        <v>3.682474781908084</v>
+        <v>2.060823032666926</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.9847775293035</v>
+        <v>20.6823720787813</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.58414887246893</v>
+        <v>21.76798303157953</v>
       </c>
       <c r="L24">
-        <v>10.77184253492796</v>
+        <v>9.688094619251482</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.33089981133201</v>
+        <v>13.74885765811172</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.0343391140775</v>
+        <v>12.82338427743068</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.023074408779221</v>
+        <v>4.445726994418437</v>
       </c>
       <c r="E25">
-        <v>10.20558151874993</v>
+        <v>8.165105307610178</v>
       </c>
       <c r="F25">
-        <v>36.98918725560802</v>
+        <v>34.68970610261754</v>
       </c>
       <c r="G25">
-        <v>3.688407877182786</v>
+        <v>2.07885151242566</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.04087955769291</v>
+        <v>20.42449516139204</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.99860700921628</v>
+        <v>19.57386118709223</v>
       </c>
       <c r="L25">
-        <v>10.67235227550335</v>
+        <v>8.998196326616664</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.42651750364235</v>
+        <v>14.09509972984628</v>
       </c>
       <c r="O25">
         <v>0</v>
